--- a/data_year/zb/批发和零售业/限额以上批发业企业资产及负债/按国民经济行业分限额以上批发业企业所有者权益.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业资产及负债/按国民经济行业分限额以上批发业企业所有者权益.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1183 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>496.6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>296.1</v>
+      </c>
       <c r="E2" t="n">
-        <v>189.9382</v>
+        <v>999.7</v>
       </c>
       <c r="F2" t="n">
-        <v>43.6288</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>567.9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>521.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>400.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>578.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3910.2</v>
+      </c>
       <c r="K2" t="n">
-        <v>125.27</v>
+        <v>905.3</v>
       </c>
       <c r="L2" t="n">
-        <v>693.1262</v>
+        <v>3147.7</v>
       </c>
       <c r="M2" t="n">
-        <v>98.48350000000001</v>
+        <v>1762.4</v>
       </c>
       <c r="N2" t="n">
-        <v>600.52</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>3247.3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10242.6</v>
+      </c>
       <c r="P2" t="n">
-        <v>100.2551</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+        <v>236.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1482.8</v>
+      </c>
+      <c r="R2" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>596.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3304.3</v>
+      </c>
       <c r="U2" t="n">
-        <v>1037.0091</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.11336</v>
+        <v>684.4547</v>
       </c>
       <c r="C3" t="n">
-        <v>80.0996</v>
+        <v>1032.0802</v>
       </c>
       <c r="D3" t="n">
-        <v>65.16073</v>
+        <v>365.3412</v>
       </c>
       <c r="E3" t="n">
-        <v>209.12071</v>
+        <v>1170.8745</v>
       </c>
       <c r="F3" t="n">
-        <v>69.62888</v>
+        <v>761.5803</v>
       </c>
       <c r="G3" t="n">
-        <v>149.09594</v>
+        <v>648.5748</v>
       </c>
       <c r="H3" t="n">
-        <v>28.052</v>
+        <v>497.4813</v>
       </c>
       <c r="I3" t="n">
-        <v>167.40602</v>
+        <v>766.5252</v>
       </c>
       <c r="J3" t="n">
-        <v>539.1882000000001</v>
+        <v>4940.2723</v>
       </c>
       <c r="K3" t="n">
-        <v>139.71439</v>
+        <v>1329.5268</v>
       </c>
       <c r="L3" t="n">
-        <v>866.12745</v>
+        <v>3619.0505</v>
       </c>
       <c r="M3" t="n">
-        <v>112.04234</v>
+        <v>2325.3447</v>
       </c>
       <c r="N3" t="n">
-        <v>804.36059</v>
+        <v>3610.6468</v>
       </c>
       <c r="O3" t="n">
-        <v>1636.23139</v>
+        <v>12692.797</v>
       </c>
       <c r="P3" t="n">
-        <v>98.59917</v>
+        <v>294.153</v>
       </c>
       <c r="Q3" t="n">
-        <v>388.42826</v>
+        <v>1903.7311</v>
       </c>
       <c r="R3" t="n">
-        <v>41.34838</v>
+        <v>375.0753</v>
       </c>
       <c r="S3" t="n">
-        <v>82.59399000000001</v>
+        <v>596.5607</v>
       </c>
       <c r="T3" t="n">
-        <v>451.49906</v>
+        <v>4291.9403</v>
       </c>
       <c r="U3" t="n">
-        <v>1188.48502</v>
+        <v>4985.3573</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339.57979</v>
+        <v>769.0404</v>
       </c>
       <c r="C4" t="n">
-        <v>185.95897</v>
+        <v>1192.8243</v>
       </c>
       <c r="D4" t="n">
-        <v>107.89104</v>
+        <v>528.5856199999999</v>
       </c>
       <c r="E4" t="n">
-        <v>272.81192</v>
+        <v>1337.24782</v>
       </c>
       <c r="F4" t="n">
-        <v>178.54924</v>
+        <v>1028.87467</v>
       </c>
       <c r="G4" t="n">
-        <v>201.6275</v>
+        <v>950.58212</v>
       </c>
       <c r="H4" t="n">
-        <v>124.08038</v>
+        <v>542.28823</v>
       </c>
       <c r="I4" t="n">
-        <v>199.38425</v>
+        <v>878.30719</v>
       </c>
       <c r="J4" t="n">
-        <v>1117.90289</v>
+        <v>5111.01787</v>
       </c>
       <c r="K4" t="n">
-        <v>216.91783</v>
+        <v>1199.69589</v>
       </c>
       <c r="L4" t="n">
-        <v>1463.93363</v>
+        <v>4105.05145</v>
       </c>
       <c r="M4" t="n">
-        <v>292.58343</v>
+        <v>3115.92791</v>
       </c>
       <c r="N4" t="n">
-        <v>1252.55315</v>
+        <v>3717.97334</v>
       </c>
       <c r="O4" t="n">
-        <v>3305.24004</v>
+        <v>14848.11261</v>
       </c>
       <c r="P4" t="n">
-        <v>117.957</v>
+        <v>355.54398</v>
       </c>
       <c r="Q4" t="n">
-        <v>543.4406</v>
+        <v>2676.55311</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3809</v>
+        <v>344.80951</v>
       </c>
       <c r="S4" t="n">
-        <v>62.15966</v>
+        <v>578.85288</v>
       </c>
       <c r="T4" t="n">
-        <v>1082.17784</v>
+        <v>4777.46637</v>
       </c>
       <c r="U4" t="n">
-        <v>1878.17973</v>
+        <v>6224.70791</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>327.3498</v>
+        <v>909.26086</v>
       </c>
       <c r="C5" t="n">
-        <v>534.0202</v>
+        <v>1625.68398</v>
       </c>
       <c r="D5" t="n">
-        <v>133.7515</v>
+        <v>580.31411</v>
       </c>
       <c r="E5" t="n">
-        <v>314.1458</v>
+        <v>1682.52791</v>
       </c>
       <c r="F5" t="n">
-        <v>202.4906</v>
+        <v>1336.39138</v>
       </c>
       <c r="G5" t="n">
-        <v>242.9616</v>
+        <v>1107.99842</v>
       </c>
       <c r="H5" t="n">
-        <v>152.7802</v>
+        <v>912.7777</v>
       </c>
       <c r="I5" t="n">
-        <v>293.7368</v>
+        <v>1245.327</v>
       </c>
       <c r="J5" t="n">
-        <v>1254.8929</v>
+        <v>5959.76782</v>
       </c>
       <c r="K5" t="n">
-        <v>231.4505</v>
+        <v>1449.07403</v>
       </c>
       <c r="L5" t="n">
-        <v>1718.6677</v>
+        <v>4567.23721</v>
       </c>
       <c r="M5" t="n">
-        <v>304.2641</v>
+        <v>3444.45804</v>
       </c>
       <c r="N5" t="n">
-        <v>1339.5425</v>
+        <v>4658.04425</v>
       </c>
       <c r="O5" t="n">
-        <v>3503.8336</v>
+        <v>17973.10477</v>
       </c>
       <c r="P5" t="n">
-        <v>154.6314</v>
+        <v>449.03422</v>
       </c>
       <c r="Q5" t="n">
-        <v>668.3596</v>
+        <v>3721.90096</v>
       </c>
       <c r="R5" t="n">
-        <v>89.0701</v>
+        <v>378.87009</v>
       </c>
       <c r="S5" t="n">
-        <v>216.6248</v>
+        <v>642.88941</v>
       </c>
       <c r="T5" t="n">
-        <v>1118.3386</v>
+        <v>5556.1251</v>
       </c>
       <c r="U5" t="n">
-        <v>2206.7032</v>
+        <v>7356.93776</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>434.45318</v>
+        <v>959.58646</v>
       </c>
       <c r="C6" t="n">
-        <v>589.9587299999999</v>
+        <v>1852.52779</v>
       </c>
       <c r="D6" t="n">
-        <v>191.04258</v>
+        <v>1172.82419</v>
       </c>
       <c r="E6" t="n">
-        <v>365.64324</v>
+        <v>2130.1109</v>
       </c>
       <c r="F6" t="n">
-        <v>304.69885</v>
+        <v>1606.95978</v>
       </c>
       <c r="G6" t="n">
-        <v>264.70602</v>
+        <v>1289.68077</v>
       </c>
       <c r="H6" t="n">
-        <v>181.58923</v>
+        <v>885.4543200000001</v>
       </c>
       <c r="I6" t="n">
-        <v>272.93107</v>
+        <v>1321.51547</v>
       </c>
       <c r="J6" t="n">
-        <v>1479.17649</v>
+        <v>6921.17464</v>
       </c>
       <c r="K6" t="n">
-        <v>280.41691</v>
+        <v>1653.85642</v>
       </c>
       <c r="L6" t="n">
-        <v>2118.21784</v>
+        <v>5022.11735</v>
       </c>
       <c r="M6" t="n">
-        <v>399.71256</v>
+        <v>3678.95189</v>
       </c>
       <c r="N6" t="n">
-        <v>1574.61467</v>
+        <v>4799.42223</v>
       </c>
       <c r="O6" t="n">
-        <v>4562.84096</v>
+        <v>20461.06648</v>
       </c>
       <c r="P6" t="n">
-        <v>108.11363</v>
+        <v>510.00759</v>
       </c>
       <c r="Q6" t="n">
-        <v>728.42358</v>
+        <v>3979.85375</v>
       </c>
       <c r="R6" t="n">
-        <v>105.13351</v>
+        <v>480.47762</v>
       </c>
       <c r="S6" t="n">
-        <v>212.14904</v>
+        <v>679.42026</v>
       </c>
       <c r="T6" t="n">
-        <v>1607.50644</v>
+        <v>6314.10422</v>
       </c>
       <c r="U6" t="n">
-        <v>2602.00921</v>
+        <v>7944.06833</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>437.7669</v>
+        <v>952.5954</v>
       </c>
       <c r="C7" t="n">
-        <v>825.7442</v>
+        <v>2048.864</v>
       </c>
       <c r="D7" t="n">
-        <v>269.2529</v>
+        <v>736.4235</v>
       </c>
       <c r="E7" t="n">
-        <v>564.6439</v>
+        <v>2576.5473</v>
       </c>
       <c r="F7" t="n">
-        <v>461.1785</v>
+        <v>1645.1575</v>
       </c>
       <c r="G7" t="n">
-        <v>412.728</v>
+        <v>1518.947</v>
       </c>
       <c r="H7" t="n">
-        <v>233.6238</v>
+        <v>788.8522</v>
       </c>
       <c r="I7" t="n">
-        <v>427.1868</v>
+        <v>1747.4171</v>
       </c>
       <c r="J7" t="n">
-        <v>2582.9382</v>
+        <v>7489.4695</v>
       </c>
       <c r="K7" t="n">
-        <v>633.116</v>
+        <v>1746.3289</v>
       </c>
       <c r="L7" t="n">
-        <v>2500.12</v>
+        <v>5075.8578</v>
       </c>
       <c r="M7" t="n">
-        <v>1374.4874</v>
+        <v>3352.2358</v>
       </c>
       <c r="N7" t="n">
-        <v>2546.0571</v>
+        <v>4914.0765</v>
       </c>
       <c r="O7" t="n">
-        <v>8258.5607</v>
+        <v>19892.7133</v>
       </c>
       <c r="P7" t="n">
-        <v>180.1047</v>
+        <v>571.1849</v>
       </c>
       <c r="Q7" t="n">
-        <v>1116.9928</v>
+        <v>4454.4525</v>
       </c>
       <c r="R7" t="n">
-        <v>159.8845</v>
+        <v>412.1334</v>
       </c>
       <c r="S7" t="n">
-        <v>423.1579</v>
+        <v>666.6143</v>
       </c>
       <c r="T7" t="n">
-        <v>2768.4526</v>
+        <v>6209.4892</v>
       </c>
       <c r="U7" t="n">
-        <v>3327.2688</v>
+        <v>9591.131299999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>438.04577</v>
+        <v>969.3019</v>
       </c>
       <c r="C8" t="n">
-        <v>931.35778</v>
+        <v>2514.6492</v>
       </c>
       <c r="D8" t="n">
-        <v>333.13504</v>
+        <v>768.6994999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>791.26842</v>
+        <v>3221.8444</v>
       </c>
       <c r="F8" t="n">
-        <v>556.5115</v>
+        <v>2079.6822</v>
       </c>
       <c r="G8" t="n">
-        <v>416.49388</v>
+        <v>1726.4537</v>
       </c>
       <c r="H8" t="n">
-        <v>322.34809</v>
+        <v>902.6218</v>
       </c>
       <c r="I8" t="n">
-        <v>432.685</v>
+        <v>1709.8415</v>
       </c>
       <c r="J8" t="n">
-        <v>2957.54013</v>
+        <v>8508.875</v>
       </c>
       <c r="K8" t="n">
-        <v>680.17589</v>
+        <v>1856.7492</v>
       </c>
       <c r="L8" t="n">
-        <v>2744.31824</v>
+        <v>5009.1606</v>
       </c>
       <c r="M8" t="n">
-        <v>1513.05603</v>
+        <v>3599.9223</v>
       </c>
       <c r="N8" t="n">
-        <v>2742.03986</v>
+        <v>5317.9438</v>
       </c>
       <c r="O8" t="n">
-        <v>8566.53652</v>
+        <v>24159.3793</v>
       </c>
       <c r="P8" t="n">
-        <v>187.7406</v>
+        <v>680.1211</v>
       </c>
       <c r="Q8" t="n">
-        <v>1280.03364</v>
+        <v>4760.8522</v>
       </c>
       <c r="R8" t="n">
-        <v>178.05363</v>
+        <v>524.4212</v>
       </c>
       <c r="S8" t="n">
-        <v>507.70695</v>
+        <v>723.4204999999999</v>
       </c>
       <c r="T8" t="n">
-        <v>2596.98801</v>
+        <v>6999.3726</v>
       </c>
       <c r="U8" t="n">
-        <v>3556.7998</v>
+        <v>9669.2667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>496.6</v>
+        <v>1009.821</v>
       </c>
       <c r="C9" t="n">
-        <v>938.5</v>
+        <v>2615.774</v>
       </c>
       <c r="D9" t="n">
-        <v>296.1</v>
+        <v>634.539</v>
       </c>
       <c r="E9" t="n">
-        <v>999.7</v>
+        <v>4123.55</v>
       </c>
       <c r="F9" t="n">
-        <v>567.9</v>
+        <v>2095.739</v>
       </c>
       <c r="G9" t="n">
-        <v>521.1</v>
+        <v>1988.814</v>
       </c>
       <c r="H9" t="n">
-        <v>400.6</v>
+        <v>975.385</v>
       </c>
       <c r="I9" t="n">
-        <v>578.4</v>
+        <v>1722.312</v>
       </c>
       <c r="J9" t="n">
-        <v>3910.2</v>
+        <v>9395.324000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>905.3</v>
+        <v>2128.28</v>
       </c>
       <c r="L9" t="n">
-        <v>3147.7</v>
+        <v>5275.489</v>
       </c>
       <c r="M9" t="n">
-        <v>1762.4</v>
+        <v>4133.02</v>
       </c>
       <c r="N9" t="n">
-        <v>3247.3</v>
+        <v>5989.549</v>
       </c>
       <c r="O9" t="n">
-        <v>10242.6</v>
+        <v>24942.488</v>
       </c>
       <c r="P9" t="n">
-        <v>236.1</v>
+        <v>745.797</v>
       </c>
       <c r="Q9" t="n">
-        <v>1482.8</v>
+        <v>5039.277</v>
       </c>
       <c r="R9" t="n">
-        <v>236.5</v>
+        <v>558.338</v>
       </c>
       <c r="S9" t="n">
-        <v>596.1</v>
+        <v>1009.083</v>
       </c>
       <c r="T9" t="n">
-        <v>3304.3</v>
+        <v>7649.83</v>
       </c>
       <c r="U9" t="n">
-        <v>4313</v>
+        <v>10325.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.4547</v>
+        <v>1280.2</v>
       </c>
       <c r="C10" t="n">
-        <v>1032.0802</v>
+        <v>2733</v>
       </c>
       <c r="D10" t="n">
-        <v>365.3412</v>
+        <v>654.9</v>
       </c>
       <c r="E10" t="n">
-        <v>1170.8745</v>
+        <v>4849</v>
       </c>
       <c r="F10" t="n">
-        <v>761.5803</v>
+        <v>2672.1</v>
       </c>
       <c r="G10" t="n">
-        <v>648.5748</v>
+        <v>2089.2</v>
       </c>
       <c r="H10" t="n">
-        <v>497.4813</v>
+        <v>813.6</v>
       </c>
       <c r="I10" t="n">
-        <v>766.5252</v>
+        <v>1925.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4940.2723</v>
+        <v>10751.5</v>
       </c>
       <c r="K10" t="n">
-        <v>1329.5268</v>
+        <v>3058.3</v>
       </c>
       <c r="L10" t="n">
-        <v>3619.0505</v>
+        <v>5579.1</v>
       </c>
       <c r="M10" t="n">
-        <v>2325.3447</v>
+        <v>4296</v>
       </c>
       <c r="N10" t="n">
-        <v>3610.6468</v>
+        <v>6701.8</v>
       </c>
       <c r="O10" t="n">
-        <v>12692.797</v>
+        <v>28353.9</v>
       </c>
       <c r="P10" t="n">
-        <v>294.153</v>
+        <v>853.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1903.7311</v>
+        <v>5942.8</v>
       </c>
       <c r="R10" t="n">
-        <v>375.0753</v>
+        <v>594.8</v>
       </c>
       <c r="S10" t="n">
-        <v>596.5607</v>
+        <v>867.9</v>
       </c>
       <c r="T10" t="n">
-        <v>4291.9403</v>
+        <v>9445.6</v>
       </c>
       <c r="U10" t="n">
-        <v>4985.3573</v>
+        <v>10607.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>769.0404</v>
+        <v>1247.855</v>
       </c>
       <c r="C11" t="n">
-        <v>1192.8243</v>
+        <v>3056.3856</v>
       </c>
       <c r="D11" t="n">
-        <v>528.5856199999999</v>
+        <v>777.4631000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>1337.24782</v>
+        <v>5916.2301</v>
       </c>
       <c r="F11" t="n">
-        <v>1028.87467</v>
+        <v>3271.6438</v>
       </c>
       <c r="G11" t="n">
-        <v>950.58212</v>
+        <v>2579.7355</v>
       </c>
       <c r="H11" t="n">
-        <v>542.28823</v>
+        <v>1247.7832</v>
       </c>
       <c r="I11" t="n">
-        <v>878.30719</v>
+        <v>1920.2319</v>
       </c>
       <c r="J11" t="n">
-        <v>5111.01787</v>
+        <v>12644.159</v>
       </c>
       <c r="K11" t="n">
-        <v>1199.69589</v>
+        <v>3399.8038</v>
       </c>
       <c r="L11" t="n">
-        <v>4105.05145</v>
+        <v>5635.0083</v>
       </c>
       <c r="M11" t="n">
-        <v>3115.92791</v>
+        <v>6312.5146</v>
       </c>
       <c r="N11" t="n">
-        <v>3717.97334</v>
+        <v>7058.3803</v>
       </c>
       <c r="O11" t="n">
-        <v>14848.11261</v>
+        <v>34574.7324</v>
       </c>
       <c r="P11" t="n">
-        <v>355.54398</v>
+        <v>901.0742</v>
       </c>
       <c r="Q11" t="n">
-        <v>2676.55311</v>
+        <v>7329.3128</v>
       </c>
       <c r="R11" t="n">
-        <v>344.80951</v>
+        <v>721.6718</v>
       </c>
       <c r="S11" t="n">
-        <v>578.85288</v>
+        <v>1130.6446</v>
       </c>
       <c r="T11" t="n">
-        <v>4777.46637</v>
+        <v>11481.0288</v>
       </c>
       <c r="U11" t="n">
-        <v>6224.70791</v>
+        <v>11429.924</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>909.26086</v>
+        <v>1734.5116</v>
       </c>
       <c r="C12" t="n">
-        <v>1625.68398</v>
+        <v>3394.831</v>
       </c>
       <c r="D12" t="n">
-        <v>580.31411</v>
+        <v>856.0798</v>
       </c>
       <c r="E12" t="n">
-        <v>1682.52791</v>
+        <v>7173.0468</v>
       </c>
       <c r="F12" t="n">
-        <v>1336.39138</v>
+        <v>3856.316</v>
       </c>
       <c r="G12" t="n">
-        <v>1107.99842</v>
+        <v>2833.0879</v>
       </c>
       <c r="H12" t="n">
-        <v>912.7777</v>
+        <v>1453.833</v>
       </c>
       <c r="I12" t="n">
-        <v>1245.327</v>
+        <v>1887.0968</v>
       </c>
       <c r="J12" t="n">
-        <v>5959.76782</v>
+        <v>15327.1206</v>
       </c>
       <c r="K12" t="n">
-        <v>1449.07403</v>
+        <v>4290.2544</v>
       </c>
       <c r="L12" t="n">
-        <v>4567.23721</v>
+        <v>6411.0528</v>
       </c>
       <c r="M12" t="n">
-        <v>3444.45804</v>
+        <v>8956.5434</v>
       </c>
       <c r="N12" t="n">
-        <v>4658.04425</v>
+        <v>6515.2889</v>
       </c>
       <c r="O12" t="n">
-        <v>17973.10477</v>
+        <v>41206.1623</v>
       </c>
       <c r="P12" t="n">
-        <v>449.03422</v>
+        <v>1127.6253</v>
       </c>
       <c r="Q12" t="n">
-        <v>3721.90096</v>
+        <v>8131.2872</v>
       </c>
       <c r="R12" t="n">
-        <v>378.87009</v>
+        <v>1173.0606</v>
       </c>
       <c r="S12" t="n">
-        <v>642.88941</v>
+        <v>1313.436</v>
       </c>
       <c r="T12" t="n">
-        <v>5556.1251</v>
+        <v>14067.256</v>
       </c>
       <c r="U12" t="n">
-        <v>7356.93776</v>
+        <v>13420.6677</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>959.58646</v>
+        <v>2178.2062</v>
       </c>
       <c r="C13" t="n">
-        <v>1852.52779</v>
+        <v>4003.8324</v>
       </c>
       <c r="D13" t="n">
-        <v>1172.82419</v>
+        <v>971.9256</v>
       </c>
       <c r="E13" t="n">
-        <v>2130.1109</v>
+        <v>8190.282</v>
       </c>
       <c r="F13" t="n">
-        <v>1606.95978</v>
+        <v>5183.017</v>
       </c>
       <c r="G13" t="n">
-        <v>1289.68077</v>
+        <v>3155.0117</v>
       </c>
       <c r="H13" t="n">
-        <v>885.4543200000001</v>
+        <v>1352.845</v>
       </c>
       <c r="I13" t="n">
-        <v>1321.51547</v>
+        <v>2031.7899</v>
       </c>
       <c r="J13" t="n">
-        <v>6921.17464</v>
+        <v>16949.7311</v>
       </c>
       <c r="K13" t="n">
-        <v>1653.85642</v>
+        <v>4908.9449</v>
       </c>
       <c r="L13" t="n">
-        <v>5022.11735</v>
+        <v>6695.7105</v>
       </c>
       <c r="M13" t="n">
-        <v>3678.95189</v>
+        <v>10923.4122</v>
       </c>
       <c r="N13" t="n">
-        <v>4799.42223</v>
+        <v>7415.1099</v>
       </c>
       <c r="O13" t="n">
-        <v>20461.06648</v>
+        <v>51187.2756</v>
       </c>
       <c r="P13" t="n">
-        <v>510.00759</v>
+        <v>1323.1012</v>
       </c>
       <c r="Q13" t="n">
-        <v>3979.85375</v>
+        <v>8730.7006</v>
       </c>
       <c r="R13" t="n">
-        <v>480.47762</v>
+        <v>1203.2803</v>
       </c>
       <c r="S13" t="n">
-        <v>679.42026</v>
+        <v>1016.3594</v>
       </c>
       <c r="T13" t="n">
-        <v>6314.10422</v>
+        <v>17449.8389</v>
       </c>
       <c r="U13" t="n">
-        <v>7944.06833</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>952.5954</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2048.864</v>
-      </c>
-      <c r="D14" t="n">
-        <v>736.4235</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2576.5473</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1645.1575</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1518.947</v>
-      </c>
-      <c r="H14" t="n">
-        <v>788.8522</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1747.4171</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7489.4695</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1746.3289</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5075.8578</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3352.2358</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4914.0765</v>
-      </c>
-      <c r="O14" t="n">
-        <v>19892.7133</v>
-      </c>
-      <c r="P14" t="n">
-        <v>571.1849</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4454.4525</v>
-      </c>
-      <c r="R14" t="n">
-        <v>412.1334</v>
-      </c>
-      <c r="S14" t="n">
-        <v>666.6143</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6209.4892</v>
-      </c>
-      <c r="U14" t="n">
-        <v>9591.131299999999</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>969.3019</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2514.6492</v>
-      </c>
-      <c r="D15" t="n">
-        <v>768.6994999999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3221.8444</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2079.6822</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1726.4537</v>
-      </c>
-      <c r="H15" t="n">
-        <v>902.6218</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1709.8415</v>
-      </c>
-      <c r="J15" t="n">
-        <v>8508.875</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1856.7492</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5009.1606</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3599.9223</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5317.9438</v>
-      </c>
-      <c r="O15" t="n">
-        <v>24159.3793</v>
-      </c>
-      <c r="P15" t="n">
-        <v>680.1211</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4760.8522</v>
-      </c>
-      <c r="R15" t="n">
-        <v>524.4212</v>
-      </c>
-      <c r="S15" t="n">
-        <v>723.4204999999999</v>
-      </c>
-      <c r="T15" t="n">
-        <v>6999.3726</v>
-      </c>
-      <c r="U15" t="n">
-        <v>9669.2667</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1009.821</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2615.774</v>
-      </c>
-      <c r="D16" t="n">
-        <v>634.539</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4123.55</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2095.739</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1988.814</v>
-      </c>
-      <c r="H16" t="n">
-        <v>975.385</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1722.312</v>
-      </c>
-      <c r="J16" t="n">
-        <v>9395.324000000001</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2128.28</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5275.489</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4133.02</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5989.549</v>
-      </c>
-      <c r="O16" t="n">
-        <v>24942.488</v>
-      </c>
-      <c r="P16" t="n">
-        <v>745.797</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5039.277</v>
-      </c>
-      <c r="R16" t="n">
-        <v>558.338</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1009.083</v>
-      </c>
-      <c r="T16" t="n">
-        <v>7649.83</v>
-      </c>
-      <c r="U16" t="n">
-        <v>10325.67</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1280.2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2733</v>
-      </c>
-      <c r="D17" t="n">
-        <v>654.9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4849</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2672.1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2089.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>813.6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1925.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10751.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3058.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5579.1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4296</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6701.8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>28353.9</v>
-      </c>
-      <c r="P17" t="n">
-        <v>853.2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5942.8</v>
-      </c>
-      <c r="R17" t="n">
-        <v>594.8</v>
-      </c>
-      <c r="S17" t="n">
-        <v>867.9</v>
-      </c>
-      <c r="T17" t="n">
-        <v>9445.6</v>
-      </c>
-      <c r="U17" t="n">
-        <v>10607.3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1247.855</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3056.3856</v>
-      </c>
-      <c r="D18" t="n">
-        <v>777.4631000000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5916.2301</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3271.6438</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2579.7355</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1247.7832</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1920.2319</v>
-      </c>
-      <c r="J18" t="n">
-        <v>12644.159</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3399.8038</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5635.0083</v>
-      </c>
-      <c r="M18" t="n">
-        <v>6312.5146</v>
-      </c>
-      <c r="N18" t="n">
-        <v>7058.3803</v>
-      </c>
-      <c r="O18" t="n">
-        <v>34574.7324</v>
-      </c>
-      <c r="P18" t="n">
-        <v>901.0742</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>7329.3128</v>
-      </c>
-      <c r="R18" t="n">
-        <v>721.6718</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1130.6446</v>
-      </c>
-      <c r="T18" t="n">
-        <v>11481.0288</v>
-      </c>
-      <c r="U18" t="n">
-        <v>11429.924</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1734.5116</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3394.831</v>
-      </c>
-      <c r="D19" t="n">
-        <v>856.0798</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7173.0468</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3856.316</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2833.0879</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1453.833</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1887.0968</v>
-      </c>
-      <c r="J19" t="n">
-        <v>15327.1206</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4290.2544</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6411.0528</v>
-      </c>
-      <c r="M19" t="n">
-        <v>8956.5434</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6515.2889</v>
-      </c>
-      <c r="O19" t="n">
-        <v>41206.1623</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1127.6253</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>8131.2872</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1173.0606</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1313.436</v>
-      </c>
-      <c r="T19" t="n">
-        <v>14067.256</v>
-      </c>
-      <c r="U19" t="n">
-        <v>13420.6677</v>
+        <v>14563.8813</v>
       </c>
     </row>
   </sheetData>
